--- a/example-import-file.xlsx
+++ b/example-import-file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brettkelley\Documents\vscode\Projects\geotab\fti\fti-config-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C45954-DBD7-4750-A19C-BE0863BF3BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B814AFA-A4A4-4258-B50F-E73F88B39068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>cardNumber</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>licPlate5</t>
+  </si>
+  <si>
+    <t>Odometer</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -403,7 +406,7 @@
     <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +428,11 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -448,8 +454,11 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>35463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -471,8 +480,11 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>35463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -494,8 +506,11 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>35463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -517,8 +532,11 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>35463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -540,35 +558,38 @@
       <c r="G6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>35463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.35">
